--- a/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/The Scripps Research Institute Molecular Screening Center-DNA repair.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/The Scripps Research Institute Molecular Screening Center-DNA repair.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="436">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -1402,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1415,7 +1415,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1428,6 +1427,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,16 +1737,16 @@
   <dimension ref="A1:BB221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2565" ySplit="4545" topLeftCell="G1" activePane="bottomLeft"/>
+      <pane xSplit="2565" ySplit="4545" activePane="topRight"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
@@ -1762,7 +1765,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1801,49 +1804,49 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="9"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1861,9 +1864,7 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +2008,7 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B3" t="str">
@@ -2160,7 +2161,7 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
@@ -2183,7 +2184,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>87</v>
       </c>
       <c r="AE5" t="s">
@@ -2191,7 +2192,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B6" t="str">
@@ -2344,7 +2345,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C7" t="s">
@@ -2367,7 +2368,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AE8" t="s">
@@ -2375,7 +2376,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B9" t="str">
@@ -2528,7 +2529,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
@@ -2554,7 +2555,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>98</v>
       </c>
       <c r="AE11" t="s">
@@ -2562,7 +2563,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B12" t="str">
@@ -2640,7 +2641,7 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>130</v>
       </c>
       <c r="AE13" t="s">
@@ -2648,7 +2649,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>130</v>
       </c>
       <c r="AE14" t="s">
@@ -2656,7 +2657,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>433</v>
       </c>
       <c r="B15" t="str">
@@ -2803,7 +2804,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>433</v>
       </c>
       <c r="AE16" t="s">
@@ -2811,7 +2812,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>433</v>
       </c>
       <c r="AE17" t="s">
@@ -2819,7 +2820,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B18" t="str">
@@ -2972,7 +2973,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C19" t="s">
@@ -2995,7 +2996,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>140</v>
       </c>
       <c r="AE20" t="s">
@@ -3003,7 +3004,7 @@
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B21" t="str">
@@ -3156,7 +3157,7 @@
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C22" t="s">
@@ -3170,7 +3171,7 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>161</v>
       </c>
       <c r="AE23" t="s">
@@ -3178,7 +3179,7 @@
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B24" t="str">
@@ -3331,7 +3332,7 @@
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C25" t="s">
@@ -3357,7 +3358,7 @@
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>103</v>
       </c>
       <c r="AE26" t="s">
@@ -3365,7 +3366,7 @@
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>433</v>
       </c>
       <c r="B27" t="str">
@@ -3518,7 +3519,7 @@
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>433</v>
       </c>
       <c r="C28" t="s">
@@ -3544,7 +3545,7 @@
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>433</v>
       </c>
       <c r="AE29" t="s">
@@ -3552,7 +3553,7 @@
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B30" t="str">
@@ -3705,7 +3706,7 @@
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C31" t="s">
@@ -3719,7 +3720,7 @@
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>171</v>
       </c>
       <c r="AE32" t="s">
@@ -3727,7 +3728,7 @@
       </c>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>433</v>
       </c>
       <c r="B33" t="str">
@@ -3880,7 +3881,7 @@
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>433</v>
       </c>
       <c r="C34" t="s">
@@ -3906,7 +3907,7 @@
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>433</v>
       </c>
       <c r="AE35" t="s">
@@ -3914,7 +3915,7 @@
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B36" t="str">
@@ -4070,7 +4071,7 @@
       </c>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D37" t="s">
@@ -4087,7 +4088,7 @@
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>183</v>
       </c>
       <c r="AE38" t="s">
@@ -4095,7 +4096,7 @@
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B39" t="str">
@@ -4245,7 +4246,7 @@
       </c>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>99</v>
       </c>
       <c r="Y40" t="s">
@@ -4256,7 +4257,7 @@
       </c>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
       <c r="AE41" t="s">
@@ -4264,7 +4265,7 @@
       </c>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B42" t="str">
@@ -4408,7 +4409,7 @@
       </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>157</v>
       </c>
       <c r="G43" t="s">
@@ -4434,7 +4435,7 @@
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>157</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -4454,7 +4455,7 @@
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B45" t="str">
@@ -4598,7 +4599,7 @@
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>154</v>
       </c>
       <c r="G46" t="s">
@@ -4624,7 +4625,7 @@
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>154</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -4644,7 +4645,7 @@
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B48" t="str">
@@ -4797,7 +4798,7 @@
       </c>
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C49" t="s">
@@ -4811,7 +4812,7 @@
       </c>
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>162</v>
       </c>
       <c r="AE50" t="s">
@@ -4819,7 +4820,7 @@
       </c>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B51" t="str">
@@ -4972,7 +4973,7 @@
       </c>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C52" t="s">
@@ -4986,7 +4987,7 @@
       </c>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>165</v>
       </c>
       <c r="AE53" t="s">
@@ -4994,7 +4995,7 @@
       </c>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B54" t="str">
@@ -5141,7 +5142,7 @@
       </c>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>168</v>
       </c>
       <c r="Y55" t="s">
@@ -5152,7 +5153,7 @@
       </c>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>168</v>
       </c>
       <c r="Y56" t="s">
@@ -5163,7 +5164,7 @@
       </c>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>168</v>
       </c>
       <c r="Y57" t="s">
@@ -5171,7 +5172,7 @@
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>184</v>
       </c>
       <c r="B58" t="str">
@@ -5306,7 +5307,7 @@
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Y59" t="s">
@@ -5317,7 +5318,7 @@
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>184</v>
       </c>
       <c r="AE60" t="s">
@@ -5325,7 +5326,7 @@
       </c>
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>434</v>
       </c>
       <c r="B61" t="str">
@@ -5475,7 +5476,7 @@
       </c>
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>434</v>
       </c>
       <c r="G62" t="s">
@@ -5504,7 +5505,7 @@
       </c>
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>434</v>
       </c>
       <c r="AE63" t="s">
@@ -5512,7 +5513,7 @@
       </c>
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B64" t="str">
@@ -5662,7 +5663,7 @@
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>106</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -5685,7 +5686,7 @@
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>106</v>
       </c>
       <c r="AE66" t="s">
@@ -5693,7 +5694,7 @@
       </c>
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B67" t="str">
@@ -5843,7 +5844,7 @@
       </c>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -5866,7 +5867,7 @@
       </c>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>114</v>
       </c>
       <c r="AE69" t="s">
@@ -5874,7 +5875,7 @@
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B70" t="str">
@@ -6024,7 +6025,7 @@
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>117</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6047,7 +6048,7 @@
       </c>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>117</v>
       </c>
       <c r="AE72" t="s">
@@ -6055,7 +6056,7 @@
       </c>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B73" t="str">
@@ -6205,7 +6206,7 @@
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>121</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -6228,7 +6229,7 @@
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>121</v>
       </c>
       <c r="AE75" t="s">
@@ -6236,7 +6237,7 @@
       </c>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B76" t="str">
@@ -6320,7 +6321,7 @@
       </c>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="11" t="s">
         <v>129</v>
       </c>
       <c r="G77" s="5"/>
@@ -6329,7 +6330,7 @@
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>129</v>
       </c>
       <c r="AE78" t="s">
@@ -6337,7 +6338,7 @@
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B79" t="str">
@@ -6490,7 +6491,7 @@
       </c>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="11" t="s">
         <v>118</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -6513,7 +6514,7 @@
       </c>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>118</v>
       </c>
       <c r="AE81" t="s">
@@ -6521,7 +6522,7 @@
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B82" t="str">
@@ -6674,7 +6675,7 @@
       </c>
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>122</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -6697,7 +6698,7 @@
       </c>
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>122</v>
       </c>
       <c r="AE84" t="s">
@@ -6705,7 +6706,7 @@
       </c>
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B85" t="str">
@@ -6861,7 +6862,7 @@
       </c>
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C86" t="s">
@@ -6897,7 +6898,7 @@
       <c r="AF86" s="4"/>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C87" t="s">
@@ -6926,7 +6927,7 @@
       </c>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>142</v>
       </c>
       <c r="D88" s="4"/>
@@ -6936,7 +6937,7 @@
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B89" t="str">
@@ -7014,7 +7015,7 @@
       </c>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>153</v>
       </c>
       <c r="AE90" s="4" t="s">
@@ -7023,7 +7024,7 @@
       <c r="AF90" s="4"/>
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>153</v>
       </c>
       <c r="AE91" s="4" t="s">
@@ -7031,7 +7032,7 @@
       </c>
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>153</v>
       </c>
       <c r="AE92" s="4" t="s">
@@ -7039,7 +7040,7 @@
       </c>
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>172</v>
       </c>
       <c r="B93" t="str">
@@ -7195,7 +7196,7 @@
       </c>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C94" t="s">
@@ -7231,7 +7232,7 @@
       <c r="AF94" s="4"/>
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C95" t="s">
@@ -7260,7 +7261,7 @@
       </c>
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="11" t="s">
         <v>172</v>
       </c>
       <c r="D96" s="4"/>
@@ -7270,7 +7271,7 @@
       </c>
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B97" t="str">
@@ -7426,7 +7427,7 @@
       </c>
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C98" t="s">
@@ -7465,7 +7466,7 @@
       <c r="AF98" s="4"/>
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C99" t="s">
@@ -7494,7 +7495,7 @@
       </c>
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="11" t="s">
         <v>179</v>
       </c>
       <c r="D100" s="4"/>
@@ -7504,7 +7505,7 @@
       </c>
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B101" t="str">
@@ -7660,7 +7661,7 @@
       </c>
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C102" t="s">
@@ -7699,7 +7700,7 @@
       <c r="AF102" s="4"/>
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C103" t="s">
@@ -7728,7 +7729,7 @@
       </c>
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>180</v>
       </c>
       <c r="D104" s="4"/>
@@ -7738,7 +7739,7 @@
       </c>
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B105" t="str">
@@ -7894,7 +7895,7 @@
       </c>
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AE106" s="4" t="s">
@@ -7903,7 +7904,7 @@
       <c r="AF106" s="4"/>
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AE107" s="4" t="s">
@@ -7911,7 +7912,7 @@
       </c>
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>150</v>
       </c>
       <c r="AE108" s="4" t="s">
@@ -7919,7 +7920,7 @@
       </c>
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B109" t="str">
@@ -8075,7 +8076,7 @@
       </c>
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>176</v>
       </c>
       <c r="AE110" s="4" t="s">
@@ -8084,7 +8085,7 @@
       <c r="AF110" s="4"/>
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>176</v>
       </c>
       <c r="AE111" s="4" t="s">
@@ -8092,7 +8093,7 @@
       </c>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="11" t="s">
         <v>176</v>
       </c>
       <c r="AE112" s="4" t="s">
@@ -8100,7 +8101,7 @@
       </c>
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B113" t="str">
@@ -8256,7 +8257,7 @@
       </c>
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>178</v>
       </c>
       <c r="Y114" t="s">
@@ -8268,7 +8269,7 @@
       <c r="AF114" s="4"/>
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>178</v>
       </c>
       <c r="AE115" s="4" t="s">
@@ -8276,7 +8277,7 @@
       </c>
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>178</v>
       </c>
       <c r="AE116" s="4" t="s">
@@ -8284,7 +8285,7 @@
       </c>
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B117" t="str">
@@ -8440,7 +8441,7 @@
       </c>
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="11" t="s">
         <v>181</v>
       </c>
       <c r="Y118" t="s">
@@ -8452,7 +8453,7 @@
       <c r="AF118" s="4"/>
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
         <v>181</v>
       </c>
       <c r="AE119" s="4" t="s">
@@ -8460,7 +8461,7 @@
       </c>
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="11" t="s">
         <v>181</v>
       </c>
       <c r="AE120" s="4" t="s">
@@ -8468,7 +8469,7 @@
       </c>
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B121" t="str">
@@ -8624,7 +8625,7 @@
       </c>
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C122" t="s">
@@ -8660,7 +8661,7 @@
       <c r="AF122" s="4"/>
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C123" t="s">
@@ -8689,7 +8690,7 @@
       </c>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C124" t="s">
@@ -8703,7 +8704,7 @@
       </c>
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B125" t="str">
@@ -8859,7 +8860,7 @@
       </c>
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C126" t="s">
@@ -8898,7 +8899,7 @@
       <c r="AF126" s="4"/>
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C127" t="s">
@@ -8927,7 +8928,7 @@
       </c>
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C128" t="s">
@@ -8941,7 +8942,7 @@
       </c>
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="11" t="s">
         <v>182</v>
       </c>
       <c r="B129" t="str">
@@ -9097,7 +9098,7 @@
       </c>
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C130" t="s">
@@ -9136,7 +9137,7 @@
       <c r="AF130" s="4"/>
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C131" t="s">
@@ -9165,7 +9166,7 @@
       </c>
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C132" t="s">
@@ -9179,7 +9180,7 @@
       </c>
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B133" t="str">
@@ -9338,7 +9339,7 @@
       </c>
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C134" t="s">
@@ -9382,7 +9383,7 @@
       </c>
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G135" t="s">
@@ -9411,7 +9412,7 @@
       </c>
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="11" t="s">
         <v>193</v>
       </c>
       <c r="B136" t="str">
@@ -9489,7 +9490,7 @@
       </c>
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="11" t="s">
         <v>193</v>
       </c>
       <c r="AE137" s="4" t="s">
@@ -9497,7 +9498,7 @@
       </c>
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="11" t="s">
         <v>193</v>
       </c>
       <c r="AE138" s="4" t="s">
@@ -9505,7 +9506,7 @@
       </c>
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="11" t="s">
         <v>194</v>
       </c>
       <c r="B139" t="str">
@@ -9664,7 +9665,7 @@
       </c>
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C140" t="s">
@@ -9708,7 +9709,7 @@
       </c>
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="11" t="s">
         <v>194</v>
       </c>
       <c r="G141" t="s">
@@ -9737,7 +9738,7 @@
       </c>
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B142" t="str">
@@ -9896,7 +9897,7 @@
       </c>
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C143" t="s">
@@ -9943,7 +9944,7 @@
       </c>
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="11" t="s">
         <v>198</v>
       </c>
       <c r="G144" t="s">
@@ -9972,7 +9973,7 @@
       </c>
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="11" t="s">
         <v>195</v>
       </c>
       <c r="B145" t="str">
@@ -10125,7 +10126,7 @@
       </c>
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="11" t="s">
         <v>195</v>
       </c>
       <c r="AE146" s="4" t="s">
@@ -10133,7 +10134,7 @@
       </c>
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="11" t="s">
         <v>195</v>
       </c>
       <c r="AE147" s="4" t="s">
@@ -10141,7 +10142,7 @@
       </c>
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B148" t="str">
@@ -10294,7 +10295,7 @@
       </c>
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="11" t="s">
         <v>199</v>
       </c>
       <c r="Y149" t="s">
@@ -10305,7 +10306,7 @@
       </c>
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AE150" s="4" t="s">
@@ -10313,7 +10314,7 @@
       </c>
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="12" t="s">
         <v>435</v>
       </c>
       <c r="B151" t="str">
@@ -10463,7 +10464,7 @@
       </c>
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="12" t="s">
         <v>435</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -10489,7 +10490,7 @@
       </c>
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="12" t="s">
         <v>435</v>
       </c>
       <c r="AE153" t="s">
@@ -10497,7 +10498,7 @@
       </c>
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="12" t="s">
         <v>435</v>
       </c>
       <c r="B154" t="str">
@@ -10635,7 +10636,7 @@
       </c>
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="12" t="s">
         <v>435</v>
       </c>
       <c r="N155" s="4" t="s">
@@ -10652,7 +10653,7 @@
       </c>
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="12" t="s">
         <v>435</v>
       </c>
       <c r="AE156" t="s">
@@ -10660,7 +10661,7 @@
       </c>
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B157" t="str">
@@ -10762,7 +10763,7 @@
       </c>
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C158" t="s">
@@ -10788,7 +10789,7 @@
       </c>
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="11" t="s">
         <v>160</v>
       </c>
       <c r="AE159" t="s">
@@ -10796,7 +10797,7 @@
       </c>
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B160" t="str">
@@ -10934,7 +10935,7 @@
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D161" t="s">
@@ -10954,7 +10955,7 @@
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D162" t="s">
@@ -10974,7 +10975,7 @@
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D163" t="s">
@@ -10991,7 +10992,7 @@
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D164" t="s">
@@ -11008,7 +11009,7 @@
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D165" t="s">
@@ -11025,7 +11026,7 @@
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D166" t="s">
@@ -11042,7 +11043,7 @@
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D167" t="s">
@@ -11059,7 +11060,7 @@
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D168" t="s">
@@ -11076,7 +11077,7 @@
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D169" t="s">
@@ -11093,7 +11094,7 @@
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D170" t="s">
@@ -11110,7 +11111,7 @@
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D171" t="s">
@@ -11127,7 +11128,7 @@
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D172" t="s">
@@ -11144,7 +11145,7 @@
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D173" t="s">
@@ -11161,7 +11162,7 @@
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D174" t="s">
@@ -11178,7 +11179,7 @@
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D175" t="s">
@@ -11195,7 +11196,7 @@
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D176" t="s">
@@ -11212,7 +11213,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="12" t="s">
+      <c r="A177" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D177" t="s">
@@ -11229,7 +11230,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D178" t="s">
@@ -11246,7 +11247,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D179" t="s">
@@ -11263,7 +11264,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D180" t="s">
@@ -11280,7 +11281,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D181" t="s">
@@ -11297,7 +11298,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D182" t="s">
@@ -11314,7 +11315,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D183" t="s">
@@ -11331,7 +11332,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="12" t="s">
+      <c r="A184" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D184" t="s">
@@ -11348,7 +11349,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="12" t="s">
+      <c r="A185" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D185" t="s">
@@ -11365,7 +11366,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D186" t="s">
@@ -11382,7 +11383,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D187" t="s">
@@ -11399,7 +11400,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="12" t="s">
+      <c r="A188" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D188" t="s">
@@ -11416,7 +11417,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
+      <c r="A189" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D189" t="s">
@@ -11433,7 +11434,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D190" t="s">
@@ -11450,7 +11451,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D191" t="s">
@@ -11467,7 +11468,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D192" t="s">
@@ -11484,7 +11485,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D193" t="s">
@@ -11501,7 +11502,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="12" t="s">
+      <c r="A194" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D194" t="s">
@@ -11518,7 +11519,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D195" t="s">
@@ -11535,7 +11536,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="12" t="s">
+      <c r="A196" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D196" t="s">
@@ -11552,7 +11553,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="12" t="s">
+      <c r="A197" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D197" t="s">
@@ -11569,7 +11570,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="12" t="s">
+      <c r="A198" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D198" t="s">
@@ -11586,7 +11587,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="12" t="s">
+      <c r="A199" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D199" t="s">
@@ -11603,7 +11604,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="12" t="s">
+      <c r="A200" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D200" t="s">
@@ -11620,7 +11621,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D201" t="s">
@@ -11637,7 +11638,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="12" t="s">
+      <c r="A202" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D202" t="s">
@@ -11654,7 +11655,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D203" t="s">
@@ -11671,7 +11672,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D204" t="s">
@@ -11688,7 +11689,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="12" t="s">
+      <c r="A205" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D205" t="s">
@@ -11705,7 +11706,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D206" t="s">
@@ -11722,7 +11723,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
+      <c r="A207" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D207" t="s">
@@ -11739,7 +11740,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D208" t="s">
@@ -11756,7 +11757,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D209" t="s">
@@ -11773,7 +11774,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D210" t="s">
@@ -11790,7 +11791,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D211" t="s">
@@ -11807,7 +11808,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D212" t="s">
@@ -11824,7 +11825,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D213" t="s">
@@ -11841,7 +11842,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
+      <c r="A214" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D214" t="s">
@@ -11858,7 +11859,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D215" t="s">
@@ -11875,7 +11876,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D216" t="s">
@@ -11892,7 +11893,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="12" t="s">
+      <c r="A217" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D217" t="s">
@@ -11909,7 +11910,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D218" t="s">
@@ -11926,7 +11927,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D219" t="s">
@@ -11943,7 +11944,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D220" t="s">
@@ -11960,7 +11961,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D221" t="s">

--- a/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/The Scripps Research Institute Molecular Screening Center-DNA repair.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/The Scripps Research Institute Molecular Screening Center-DNA repair.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="437">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -1346,6 +1346,9 @@
   </si>
   <si>
     <t xml:space="preserve">  2131</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -1415,9 +1418,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1427,6 +1427,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1739,14 +1742,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2565" ySplit="4545" activePane="topRight"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
@@ -1765,7 +1768,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1846,7 +1849,7 @@
       <c r="AI1" s="14"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1864,7 +1867,9 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +2013,7 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B3" t="str">
@@ -2161,7 +2166,7 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C4" t="s">
@@ -2184,7 +2189,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AE5" t="s">
@@ -2192,7 +2197,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B6" t="str">
@@ -2345,7 +2350,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C7" t="s">
@@ -2368,7 +2373,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AE8" t="s">
@@ -2376,7 +2381,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B9" t="str">
@@ -2529,7 +2534,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="s">
@@ -2555,7 +2560,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>98</v>
       </c>
       <c r="AE11" t="s">
@@ -2563,7 +2568,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B12" t="str">
@@ -2641,7 +2646,7 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>130</v>
       </c>
       <c r="AE13" t="s">
@@ -2649,7 +2654,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="AE14" t="s">
@@ -2657,7 +2662,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B15" t="str">
@@ -2804,7 +2809,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>433</v>
       </c>
       <c r="AE16" t="s">
@@ -2812,7 +2817,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>433</v>
       </c>
       <c r="AE17" t="s">
@@ -2820,7 +2825,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B18" t="str">
@@ -2973,7 +2978,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C19" t="s">
@@ -2996,7 +3001,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>140</v>
       </c>
       <c r="AE20" t="s">
@@ -3004,7 +3009,7 @@
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>161</v>
       </c>
       <c r="B21" t="str">
@@ -3157,7 +3162,7 @@
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C22" t="s">
@@ -3171,7 +3176,7 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AE23" t="s">
@@ -3179,7 +3184,7 @@
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B24" t="str">
@@ -3332,7 +3337,7 @@
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C25" t="s">
@@ -3358,7 +3363,7 @@
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>103</v>
       </c>
       <c r="AE26" t="s">
@@ -3366,7 +3371,7 @@
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B27" t="str">
@@ -3519,7 +3524,7 @@
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>433</v>
       </c>
       <c r="C28" t="s">
@@ -3545,7 +3550,7 @@
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>433</v>
       </c>
       <c r="AE29" t="s">
@@ -3553,7 +3558,7 @@
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>171</v>
       </c>
       <c r="B30" t="str">
@@ -3706,7 +3711,7 @@
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C31" t="s">
@@ -3720,7 +3725,7 @@
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>171</v>
       </c>
       <c r="AE32" t="s">
@@ -3728,7 +3733,7 @@
       </c>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B33" t="str">
@@ -3881,7 +3886,7 @@
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>433</v>
       </c>
       <c r="C34" t="s">
@@ -3907,7 +3912,7 @@
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>433</v>
       </c>
       <c r="AE35" t="s">
@@ -3915,7 +3920,7 @@
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
       <c r="B36" t="str">
@@ -4071,7 +4076,7 @@
       </c>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>183</v>
       </c>
       <c r="D37" t="s">
@@ -4088,7 +4093,7 @@
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>183</v>
       </c>
       <c r="AE38" t="s">
@@ -4096,7 +4101,7 @@
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B39" t="str">
@@ -4246,7 +4251,7 @@
       </c>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>99</v>
       </c>
       <c r="Y40" t="s">
@@ -4257,7 +4262,7 @@
       </c>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>99</v>
       </c>
       <c r="AE41" t="s">
@@ -4265,7 +4270,7 @@
       </c>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B42" t="str">
@@ -4409,7 +4414,7 @@
       </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>157</v>
       </c>
       <c r="G43" t="s">
@@ -4435,7 +4440,7 @@
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>157</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -4455,7 +4460,7 @@
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B45" t="str">
@@ -4599,7 +4604,7 @@
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G46" t="s">
@@ -4625,7 +4630,7 @@
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -4645,7 +4650,7 @@
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B48" t="str">
@@ -4798,7 +4803,7 @@
       </c>
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C49" t="s">
@@ -4812,7 +4817,7 @@
       </c>
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>162</v>
       </c>
       <c r="AE50" t="s">
@@ -4820,7 +4825,7 @@
       </c>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>165</v>
       </c>
       <c r="B51" t="str">
@@ -4973,7 +4978,7 @@
       </c>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C52" t="s">
@@ -4987,7 +4992,7 @@
       </c>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>165</v>
       </c>
       <c r="AE53" t="s">
@@ -4995,7 +5000,7 @@
       </c>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B54" t="str">
@@ -5142,7 +5147,7 @@
       </c>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>168</v>
       </c>
       <c r="Y55" t="s">
@@ -5153,7 +5158,7 @@
       </c>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>168</v>
       </c>
       <c r="Y56" t="s">
@@ -5164,7 +5169,7 @@
       </c>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>168</v>
       </c>
       <c r="Y57" t="s">
@@ -5172,7 +5177,7 @@
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>184</v>
       </c>
       <c r="B58" t="str">
@@ -5307,7 +5312,7 @@
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>184</v>
       </c>
       <c r="Y59" t="s">
@@ -5318,7 +5323,7 @@
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>184</v>
       </c>
       <c r="AE60" t="s">
@@ -5326,7 +5331,7 @@
       </c>
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>434</v>
       </c>
       <c r="B61" t="str">
@@ -5476,7 +5481,7 @@
       </c>
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>434</v>
       </c>
       <c r="G62" t="s">
@@ -5505,7 +5510,7 @@
       </c>
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>434</v>
       </c>
       <c r="AE63" t="s">
@@ -5513,7 +5518,7 @@
       </c>
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B64" t="str">
@@ -5663,7 +5668,7 @@
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>106</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -5686,7 +5691,7 @@
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>106</v>
       </c>
       <c r="AE66" t="s">
@@ -5694,7 +5699,7 @@
       </c>
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B67" t="str">
@@ -5844,7 +5849,7 @@
       </c>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -5867,7 +5872,7 @@
       </c>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>114</v>
       </c>
       <c r="AE69" t="s">
@@ -5875,7 +5880,7 @@
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B70" t="str">
@@ -6025,7 +6030,7 @@
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>117</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6048,7 +6053,7 @@
       </c>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>117</v>
       </c>
       <c r="AE72" t="s">
@@ -6056,7 +6061,7 @@
       </c>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B73" t="str">
@@ -6206,7 +6211,7 @@
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -6229,7 +6234,7 @@
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>121</v>
       </c>
       <c r="AE75" t="s">
@@ -6237,7 +6242,7 @@
       </c>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B76" t="str">
@@ -6321,7 +6326,7 @@
       </c>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G77" s="5"/>
@@ -6330,7 +6335,7 @@
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>129</v>
       </c>
       <c r="AE78" t="s">
@@ -6338,7 +6343,7 @@
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B79" t="str">
@@ -6491,7 +6496,7 @@
       </c>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -6514,7 +6519,7 @@
       </c>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AE81" t="s">
@@ -6522,7 +6527,7 @@
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B82" t="str">
@@ -6675,7 +6680,7 @@
       </c>
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>122</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -6698,7 +6703,7 @@
       </c>
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>122</v>
       </c>
       <c r="AE84" t="s">
@@ -6706,7 +6711,7 @@
       </c>
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B85" t="str">
@@ -6862,7 +6867,7 @@
       </c>
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C86" t="s">
@@ -6898,7 +6903,7 @@
       <c r="AF86" s="4"/>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C87" t="s">
@@ -6927,7 +6932,7 @@
       </c>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D88" s="4"/>
@@ -6937,7 +6942,7 @@
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B89" t="str">
@@ -7015,7 +7020,7 @@
       </c>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>153</v>
       </c>
       <c r="AE90" s="4" t="s">
@@ -7024,7 +7029,7 @@
       <c r="AF90" s="4"/>
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>153</v>
       </c>
       <c r="AE91" s="4" t="s">
@@ -7032,7 +7037,7 @@
       </c>
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>153</v>
       </c>
       <c r="AE92" s="4" t="s">
@@ -7040,7 +7045,7 @@
       </c>
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B93" t="str">
@@ -7196,7 +7201,7 @@
       </c>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C94" t="s">
@@ -7232,7 +7237,7 @@
       <c r="AF94" s="4"/>
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C95" t="s">
@@ -7261,7 +7266,7 @@
       </c>
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>172</v>
       </c>
       <c r="D96" s="4"/>
@@ -7271,7 +7276,7 @@
       </c>
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B97" t="str">
@@ -7427,7 +7432,7 @@
       </c>
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C98" t="s">
@@ -7466,7 +7471,7 @@
       <c r="AF98" s="4"/>
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C99" t="s">
@@ -7495,7 +7500,7 @@
       </c>
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D100" s="4"/>
@@ -7505,7 +7510,7 @@
       </c>
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B101" t="str">
@@ -7661,7 +7666,7 @@
       </c>
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C102" t="s">
@@ -7700,7 +7705,7 @@
       <c r="AF102" s="4"/>
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C103" t="s">
@@ -7729,7 +7734,7 @@
       </c>
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="10" t="s">
         <v>180</v>
       </c>
       <c r="D104" s="4"/>
@@ -7739,7 +7744,7 @@
       </c>
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B105" t="str">
@@ -7895,7 +7900,7 @@
       </c>
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="10" t="s">
         <v>150</v>
       </c>
       <c r="AE106" s="4" t="s">
@@ -7904,7 +7909,7 @@
       <c r="AF106" s="4"/>
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="10" t="s">
         <v>150</v>
       </c>
       <c r="AE107" s="4" t="s">
@@ -7912,7 +7917,7 @@
       </c>
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>150</v>
       </c>
       <c r="AE108" s="4" t="s">
@@ -7920,7 +7925,7 @@
       </c>
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B109" t="str">
@@ -8076,7 +8081,7 @@
       </c>
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>176</v>
       </c>
       <c r="AE110" s="4" t="s">
@@ -8085,7 +8090,7 @@
       <c r="AF110" s="4"/>
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="10" t="s">
         <v>176</v>
       </c>
       <c r="AE111" s="4" t="s">
@@ -8093,7 +8098,7 @@
       </c>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="10" t="s">
         <v>176</v>
       </c>
       <c r="AE112" s="4" t="s">
@@ -8101,7 +8106,7 @@
       </c>
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>178</v>
       </c>
       <c r="B113" t="str">
@@ -8257,7 +8262,7 @@
       </c>
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="10" t="s">
         <v>178</v>
       </c>
       <c r="Y114" t="s">
@@ -8269,7 +8274,7 @@
       <c r="AF114" s="4"/>
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="10" t="s">
         <v>178</v>
       </c>
       <c r="AE115" s="4" t="s">
@@ -8277,7 +8282,7 @@
       </c>
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>178</v>
       </c>
       <c r="AE116" s="4" t="s">
@@ -8285,7 +8290,7 @@
       </c>
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="10" t="s">
         <v>181</v>
       </c>
       <c r="B117" t="str">
@@ -8441,7 +8446,7 @@
       </c>
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="10" t="s">
         <v>181</v>
       </c>
       <c r="Y118" t="s">
@@ -8453,7 +8458,7 @@
       <c r="AF118" s="4"/>
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="10" t="s">
         <v>181</v>
       </c>
       <c r="AE119" s="4" t="s">
@@ -8461,7 +8466,7 @@
       </c>
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="10" t="s">
         <v>181</v>
       </c>
       <c r="AE120" s="4" t="s">
@@ -8469,7 +8474,7 @@
       </c>
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B121" t="str">
@@ -8625,7 +8630,7 @@
       </c>
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C122" t="s">
@@ -8661,7 +8666,7 @@
       <c r="AF122" s="4"/>
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C123" t="s">
@@ -8690,7 +8695,7 @@
       </c>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C124" t="s">
@@ -8704,7 +8709,7 @@
       </c>
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B125" t="str">
@@ -8860,7 +8865,7 @@
       </c>
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C126" t="s">
@@ -8899,7 +8904,7 @@
       <c r="AF126" s="4"/>
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C127" t="s">
@@ -8928,7 +8933,7 @@
       </c>
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C128" t="s">
@@ -8942,7 +8947,7 @@
       </c>
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B129" t="str">
@@ -9098,7 +9103,7 @@
       </c>
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C130" t="s">
@@ -9137,7 +9142,7 @@
       <c r="AF130" s="4"/>
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C131" t="s">
@@ -9166,7 +9171,7 @@
       </c>
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C132" t="s">
@@ -9180,7 +9185,7 @@
       </c>
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="10" t="s">
         <v>185</v>
       </c>
       <c r="B133" t="str">
@@ -9339,7 +9344,7 @@
       </c>
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C134" t="s">
@@ -9383,7 +9388,7 @@
       </c>
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="10" t="s">
         <v>185</v>
       </c>
       <c r="G135" t="s">
@@ -9412,7 +9417,7 @@
       </c>
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="10" t="s">
         <v>193</v>
       </c>
       <c r="B136" t="str">
@@ -9490,7 +9495,7 @@
       </c>
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="10" t="s">
         <v>193</v>
       </c>
       <c r="AE137" s="4" t="s">
@@ -9498,7 +9503,7 @@
       </c>
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="10" t="s">
         <v>193</v>
       </c>
       <c r="AE138" s="4" t="s">
@@ -9506,7 +9511,7 @@
       </c>
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B139" t="str">
@@ -9665,7 +9670,7 @@
       </c>
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C140" t="s">
@@ -9709,7 +9714,7 @@
       </c>
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="10" t="s">
         <v>194</v>
       </c>
       <c r="G141" t="s">
@@ -9738,7 +9743,7 @@
       </c>
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="10" t="s">
         <v>198</v>
       </c>
       <c r="B142" t="str">
@@ -9897,7 +9902,7 @@
       </c>
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C143" t="s">
@@ -9944,7 +9949,7 @@
       </c>
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="10" t="s">
         <v>198</v>
       </c>
       <c r="G144" t="s">
@@ -9973,7 +9978,7 @@
       </c>
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B145" t="str">
@@ -10126,7 +10131,7 @@
       </c>
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="10" t="s">
         <v>195</v>
       </c>
       <c r="AE146" s="4" t="s">
@@ -10134,7 +10139,7 @@
       </c>
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="10" t="s">
         <v>195</v>
       </c>
       <c r="AE147" s="4" t="s">
@@ -10142,7 +10147,7 @@
       </c>
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B148" t="str">
@@ -10295,7 +10300,7 @@
       </c>
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="10" t="s">
         <v>199</v>
       </c>
       <c r="Y149" t="s">
@@ -10306,7 +10311,7 @@
       </c>
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="10" t="s">
         <v>199</v>
       </c>
       <c r="AE150" s="4" t="s">
@@ -10314,7 +10319,7 @@
       </c>
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="11" t="s">
         <v>435</v>
       </c>
       <c r="B151" t="str">
@@ -10464,7 +10469,7 @@
       </c>
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="11" t="s">
         <v>435</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -10490,7 +10495,7 @@
       </c>
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="11" t="s">
         <v>435</v>
       </c>
       <c r="AE153" t="s">
@@ -10498,7 +10503,7 @@
       </c>
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="11" t="s">
         <v>435</v>
       </c>
       <c r="B154" t="str">
@@ -10636,7 +10641,7 @@
       </c>
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="11" t="s">
         <v>435</v>
       </c>
       <c r="N155" s="4" t="s">
@@ -10653,7 +10658,7 @@
       </c>
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="11" t="s">
         <v>435</v>
       </c>
       <c r="AE156" t="s">
@@ -10661,7 +10666,7 @@
       </c>
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="10" t="s">
         <v>160</v>
       </c>
       <c r="B157" t="str">
@@ -10763,7 +10768,7 @@
       </c>
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C158" t="s">
@@ -10789,7 +10794,7 @@
       </c>
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="10" t="s">
         <v>160</v>
       </c>
       <c r="AE159" t="s">
@@ -10797,7 +10802,7 @@
       </c>
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B160" t="str">
@@ -10935,7 +10940,7 @@
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D161" t="s">
@@ -10955,7 +10960,7 @@
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D162" t="s">
@@ -10975,7 +10980,7 @@
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D163" t="s">
@@ -10992,7 +10997,7 @@
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D164" t="s">
@@ -11009,7 +11014,7 @@
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D165" t="s">
@@ -11026,7 +11031,7 @@
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D166" t="s">
@@ -11043,7 +11048,7 @@
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D167" t="s">
@@ -11060,7 +11065,7 @@
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D168" t="s">
@@ -11077,7 +11082,7 @@
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D169" t="s">
@@ -11094,7 +11099,7 @@
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D170" t="s">
@@ -11111,7 +11116,7 @@
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D171" t="s">
@@ -11128,7 +11133,7 @@
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D172" t="s">
@@ -11145,7 +11150,7 @@
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D173" t="s">
@@ -11162,7 +11167,7 @@
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D174" t="s">
@@ -11179,7 +11184,7 @@
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D175" t="s">
@@ -11196,7 +11201,7 @@
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D176" t="s">
@@ -11213,7 +11218,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D177" t="s">
@@ -11230,7 +11235,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D178" t="s">
@@ -11247,7 +11252,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D179" t="s">
@@ -11264,7 +11269,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D180" t="s">
@@ -11281,7 +11286,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D181" t="s">
@@ -11298,7 +11303,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D182" t="s">
@@ -11315,7 +11320,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D183" t="s">
@@ -11332,7 +11337,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D184" t="s">
@@ -11349,7 +11354,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D185" t="s">
@@ -11366,7 +11371,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D186" t="s">
@@ -11383,7 +11388,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D187" t="s">
@@ -11400,7 +11405,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D188" t="s">
@@ -11417,7 +11422,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D189" t="s">
@@ -11434,7 +11439,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D190" t="s">
@@ -11451,7 +11456,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D191" t="s">
@@ -11468,7 +11473,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D192" t="s">
@@ -11485,7 +11490,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="11" t="s">
+      <c r="A193" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D193" t="s">
@@ -11502,7 +11507,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D194" t="s">
@@ -11519,7 +11524,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D195" t="s">
@@ -11536,7 +11541,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D196" t="s">
@@ -11553,7 +11558,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D197" t="s">
@@ -11570,7 +11575,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D198" t="s">
@@ -11587,7 +11592,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D199" t="s">
@@ -11604,7 +11609,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="11" t="s">
+      <c r="A200" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D200" t="s">
@@ -11621,7 +11626,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D201" t="s">
@@ -11638,7 +11643,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="11" t="s">
+      <c r="A202" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D202" t="s">
@@ -11655,7 +11660,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D203" t="s">
@@ -11672,7 +11677,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="11" t="s">
+      <c r="A204" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D204" t="s">
@@ -11689,7 +11694,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="11" t="s">
+      <c r="A205" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D205" t="s">
@@ -11706,7 +11711,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="11" t="s">
+      <c r="A206" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D206" t="s">
@@ -11723,7 +11728,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="11" t="s">
+      <c r="A207" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D207" t="s">
@@ -11740,7 +11745,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="11" t="s">
+      <c r="A208" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D208" t="s">
@@ -11757,7 +11762,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D209" t="s">
@@ -11774,7 +11779,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D210" t="s">
@@ -11791,7 +11796,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D211" t="s">
@@ -11808,7 +11813,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D212" t="s">
@@ -11825,7 +11830,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="11" t="s">
+      <c r="A213" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D213" t="s">
@@ -11842,7 +11847,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="11" t="s">
+      <c r="A214" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D214" t="s">
@@ -11859,7 +11864,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="11" t="s">
+      <c r="A215" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D215" t="s">
@@ -11876,7 +11881,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="11" t="s">
+      <c r="A216" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D216" t="s">
@@ -11893,7 +11898,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="11" t="s">
+      <c r="A217" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D217" t="s">
@@ -11910,7 +11915,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="11" t="s">
+      <c r="A218" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D218" t="s">
@@ -11927,7 +11932,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="11" t="s">
+      <c r="A219" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D219" t="s">
@@ -11944,7 +11949,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="11" t="s">
+      <c r="A220" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D220" t="s">
@@ -11961,7 +11966,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D221" t="s">
